--- a/lab6.xlsx
+++ b/lab6.xlsx
@@ -8,13 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\projects\edu\itmo-parallel-computing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D445215B-AAAE-4D1D-B0FE-382640F24BEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3456C04B-CEFF-4E75-BDEC-7D2084490AD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="456" xr2:uid="{B7FCCE40-8094-4485-A069-2C0CA05E1453}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="456" activeTab="1" xr2:uid="{B7FCCE40-8094-4485-A069-2C0CA05E1453}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист2" sheetId="2" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="3" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="17">
   <si>
     <t>threads</t>
   </si>
@@ -66,6 +70,27 @@
   </si>
   <si>
     <t>reduce 4</t>
+  </si>
+  <si>
+    <t>АЛЬФА</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>STD</t>
+  </si>
+  <si>
+    <t>ИНТ</t>
+  </si>
+  <si>
+    <t>СРЕД</t>
+  </si>
+  <si>
+    <t>МИН-ДОВ</t>
+  </si>
+  <si>
+    <t>МАКС-ДОВ</t>
   </si>
 </sst>
 </file>
@@ -123,9 +148,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -8288,6 +8314,732 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Время выполнения,</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> дов интервал</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>min</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$B$1:$K$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2180</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2320</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2460</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2740</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2880</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3020</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3160</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$14:$K$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>818</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>816</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>820</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>824</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>824</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>805</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>819</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>821</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>822</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>824</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-097E-49C7-876B-6133BF12D796}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>СРЕД</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$B$1:$K$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2180</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2320</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2460</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2740</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2880</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3020</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3160</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$18:$K$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>846.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>848.16666666666663</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>852.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>854.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>855.66666666666663</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>859.16666666666663</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>861.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>864.66666666666663</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>866.16666666666663</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-097E-49C7-876B-6133BF12D796}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>МИН-ДОВ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$B$1:$K$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2180</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2320</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2460</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2740</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2880</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3020</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3160</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$19:$K$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>819.49916927474146</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>817.6456505862601</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>821.87005896355936</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>822.69476821224555</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>823.11841053832904</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>810.89229225401095</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>822.16738919223292</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>824.56884845706202</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>826.63573282502762</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>825.36231689757585</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-097E-49C7-876B-6133BF12D796}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>МАКС-ДОВ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$B$1:$K$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2180</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2320</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2460</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2740</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2880</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3020</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3160</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$20:$K$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>873.50083072525854</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>878.68768274707315</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>882.79660770310738</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>885.97189845442119</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>888.21492279500421</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>889.10770774598905</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>896.16594414110034</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>898.43115154293798</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>902.69760050830564</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>906.97101643575741</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-097E-49C7-876B-6133BF12D796}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="637862016"/>
+        <c:axId val="637873056"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="637862016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="637873056"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="637873056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="637862016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13854,6 +14606,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors19.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -19180,6 +19972,522 @@
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style19.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -23905,6 +25213,236 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Диаграмма 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{580DEB36-5F2E-D774-1689-10A5CD4DA8DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Лист1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="B1">
+            <v>1900</v>
+          </cell>
+          <cell r="C1">
+            <v>2040</v>
+          </cell>
+          <cell r="D1">
+            <v>2180</v>
+          </cell>
+          <cell r="E1">
+            <v>2320</v>
+          </cell>
+          <cell r="F1">
+            <v>2460</v>
+          </cell>
+          <cell r="G1">
+            <v>2600</v>
+          </cell>
+          <cell r="H1">
+            <v>2740</v>
+          </cell>
+          <cell r="I1">
+            <v>2880</v>
+          </cell>
+          <cell r="J1">
+            <v>3020</v>
+          </cell>
+          <cell r="K1">
+            <v>3160</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>min</v>
+          </cell>
+          <cell r="B14">
+            <v>9.8710389999999997</v>
+          </cell>
+          <cell r="C14">
+            <v>12.479441</v>
+          </cell>
+          <cell r="D14">
+            <v>15.404712</v>
+          </cell>
+          <cell r="E14">
+            <v>17.226451999999998</v>
+          </cell>
+          <cell r="F14">
+            <v>21.594560000000001</v>
+          </cell>
+          <cell r="G14">
+            <v>23.856828</v>
+          </cell>
+          <cell r="H14">
+            <v>27.496459999999999</v>
+          </cell>
+          <cell r="I14">
+            <v>31.379619000000002</v>
+          </cell>
+          <cell r="J14">
+            <v>36.292363999999999</v>
+          </cell>
+          <cell r="K14">
+            <v>40.967751</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18" t="str">
+            <v>СРЕД</v>
+          </cell>
+          <cell r="B18">
+            <v>11.101489400000002</v>
+          </cell>
+          <cell r="C18">
+            <v>13.204667199999998</v>
+          </cell>
+          <cell r="D18">
+            <v>16.000741400000003</v>
+          </cell>
+          <cell r="E18">
+            <v>18.665904099999999</v>
+          </cell>
+          <cell r="F18">
+            <v>22.573599099999999</v>
+          </cell>
+          <cell r="G18">
+            <v>25.273372299999998</v>
+          </cell>
+          <cell r="H18">
+            <v>29.521283199999999</v>
+          </cell>
+          <cell r="I18">
+            <v>32.910000699999998</v>
+          </cell>
+          <cell r="J18">
+            <v>38.122152500000006</v>
+          </cell>
+          <cell r="K18">
+            <v>44.750811599999999</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19" t="str">
+            <v>МИН-ДОВ</v>
+          </cell>
+          <cell r="B19">
+            <v>10.595975807301835</v>
+          </cell>
+          <cell r="C19">
+            <v>12.705024320340209</v>
+          </cell>
+          <cell r="D19">
+            <v>15.642959419698359</v>
+          </cell>
+          <cell r="E19">
+            <v>17.732683372674416</v>
+          </cell>
+          <cell r="F19">
+            <v>21.779939752448083</v>
+          </cell>
+          <cell r="G19">
+            <v>24.769559243216968</v>
+          </cell>
+          <cell r="H19">
+            <v>27.851212378142922</v>
+          </cell>
+          <cell r="I19">
+            <v>32.172641656035935</v>
+          </cell>
+          <cell r="J19">
+            <v>37.066228681994176</v>
+          </cell>
+          <cell r="K19">
+            <v>41.476973077939633</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20" t="str">
+            <v>МАКС-ДОВ</v>
+          </cell>
+          <cell r="B20">
+            <v>11.607002992698169</v>
+          </cell>
+          <cell r="C20">
+            <v>13.704310079659786</v>
+          </cell>
+          <cell r="D20">
+            <v>16.358523380301644</v>
+          </cell>
+          <cell r="E20">
+            <v>19.599124827325582</v>
+          </cell>
+          <cell r="F20">
+            <v>23.367258447551915</v>
+          </cell>
+          <cell r="G20">
+            <v>25.777185356783029</v>
+          </cell>
+          <cell r="H20">
+            <v>31.191354021857077</v>
+          </cell>
+          <cell r="I20">
+            <v>33.64735974396406</v>
+          </cell>
+          <cell r="J20">
+            <v>39.178076318005836</v>
+          </cell>
+          <cell r="K20">
+            <v>48.024650122060365</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
@@ -24204,8 +25742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D904BBAD-EF62-4201-8725-916FE435B9E5}">
   <dimension ref="A3:BC99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Z12" sqref="Z12"/>
+    <sheetView topLeftCell="E67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="X8" sqref="X5:X8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28688,4 +30226,744 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF647ACC-423E-43B9-B2F9-BE5BFE49AEFF}">
+  <dimension ref="A1:K20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M31" sqref="M31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B1" s="2">
+        <v>1900</v>
+      </c>
+      <c r="C1" s="2">
+        <v>2040</v>
+      </c>
+      <c r="D1" s="2">
+        <v>2180</v>
+      </c>
+      <c r="E1" s="2">
+        <v>2320</v>
+      </c>
+      <c r="F1" s="2">
+        <v>2460</v>
+      </c>
+      <c r="G1" s="2">
+        <v>2600</v>
+      </c>
+      <c r="H1" s="2">
+        <v>2740</v>
+      </c>
+      <c r="I1" s="2">
+        <v>2880</v>
+      </c>
+      <c r="J1" s="2">
+        <v>3020</v>
+      </c>
+      <c r="K1" s="2">
+        <v>3160</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <f>SUM(Лист2!X5:X8)</f>
+        <v>818</v>
+      </c>
+      <c r="C2">
+        <f>SUM(Лист2!Y5:Y8)</f>
+        <v>816</v>
+      </c>
+      <c r="D2">
+        <f>SUM(Лист2!Z5:Z8)</f>
+        <v>820</v>
+      </c>
+      <c r="E2">
+        <f>SUM(Лист2!AA5:AA8)</f>
+        <v>824</v>
+      </c>
+      <c r="F2">
+        <f>SUM(Лист2!AB5:AB8)</f>
+        <v>824</v>
+      </c>
+      <c r="G2">
+        <f>SUM(Лист2!AC5:AC8)</f>
+        <v>817</v>
+      </c>
+      <c r="H2">
+        <f>SUM(Лист2!AD5:AD8)</f>
+        <v>819</v>
+      </c>
+      <c r="I2">
+        <f>SUM(Лист2!AE5:AE8)</f>
+        <v>821</v>
+      </c>
+      <c r="J2">
+        <f>SUM(Лист2!AF5:AF8)</f>
+        <v>822</v>
+      </c>
+      <c r="K2">
+        <f>SUM(Лист2!AG5:AG8)</f>
+        <v>824</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <f>SUM(Лист2!X24:X27)</f>
+        <v>824</v>
+      </c>
+      <c r="C3">
+        <f>SUM(Лист2!Y24:Y27)</f>
+        <v>824</v>
+      </c>
+      <c r="D3">
+        <f>SUM(Лист2!Z24:Z27)</f>
+        <v>827</v>
+      </c>
+      <c r="E3">
+        <f>SUM(Лист2!AA24:AA27)</f>
+        <v>825</v>
+      </c>
+      <c r="F3">
+        <f>SUM(Лист2!AB24:AB27)</f>
+        <v>828</v>
+      </c>
+      <c r="G3">
+        <f>SUM(Лист2!AC24:AC27)</f>
+        <v>831</v>
+      </c>
+      <c r="H3">
+        <f>SUM(Лист2!AD24:AD27)</f>
+        <v>829</v>
+      </c>
+      <c r="I3">
+        <f>SUM(Лист2!AE24:AE27)</f>
+        <v>833</v>
+      </c>
+      <c r="J3">
+        <f>SUM(Лист2!AF24:AF27)</f>
+        <v>835</v>
+      </c>
+      <c r="K3">
+        <f>SUM(Лист2!AG24:AG27)</f>
+        <v>832</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <f>SUM(Лист2!X41:X44)</f>
+        <v>831</v>
+      </c>
+      <c r="C4">
+        <f>SUM(Лист2!Y41:Y44)</f>
+        <v>831</v>
+      </c>
+      <c r="D4">
+        <f>SUM(Лист2!Z41:Z44)</f>
+        <v>835</v>
+      </c>
+      <c r="E4">
+        <f>SUM(Лист2!AA41:AA44)</f>
+        <v>836</v>
+      </c>
+      <c r="F4">
+        <f>SUM(Лист2!AB41:AB44)</f>
+        <v>836</v>
+      </c>
+      <c r="G4">
+        <f>SUM(Лист2!AC41:AC44)</f>
+        <v>836</v>
+      </c>
+      <c r="H4">
+        <f>SUM(Лист2!AD41:AD44)</f>
+        <v>837</v>
+      </c>
+      <c r="I4">
+        <f>SUM(Лист2!AE41:AE44)</f>
+        <v>839</v>
+      </c>
+      <c r="J4">
+        <f>SUM(Лист2!AF41:AF44)</f>
+        <v>846</v>
+      </c>
+      <c r="K4">
+        <f>SUM(Лист2!AG41:AG44)</f>
+        <v>845</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <f>SUM(Лист2!X58:X61)</f>
+        <v>838</v>
+      </c>
+      <c r="C5">
+        <f>SUM(Лист2!Y58:Y61)</f>
+        <v>839</v>
+      </c>
+      <c r="D5">
+        <f>SUM(Лист2!Z58:Z61)</f>
+        <v>841</v>
+      </c>
+      <c r="E5">
+        <f>SUM(Лист2!AA58:AA61)</f>
+        <v>845</v>
+      </c>
+      <c r="F5">
+        <f>SUM(Лист2!AB58:AB61)</f>
+        <v>845</v>
+      </c>
+      <c r="G5">
+        <f>SUM(Лист2!AC58:AC61)</f>
+        <v>805</v>
+      </c>
+      <c r="H5">
+        <f>SUM(Лист2!AD58:AD61)</f>
+        <v>848</v>
+      </c>
+      <c r="I5">
+        <f>SUM(Лист2!AE58:AE61)</f>
+        <v>851</v>
+      </c>
+      <c r="J5">
+        <f>SUM(Лист2!AF58:AF61)</f>
+        <v>849</v>
+      </c>
+      <c r="K5">
+        <f>SUM(Лист2!AG58:AG61)</f>
+        <v>850</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <f>SUM(Лист2!X75:X78)</f>
+        <v>859</v>
+      </c>
+      <c r="C6">
+        <f>SUM(Лист2!Y75:Y78)</f>
+        <v>859</v>
+      </c>
+      <c r="D6">
+        <f>SUM(Лист2!Z75:Z78)</f>
+        <v>869</v>
+      </c>
+      <c r="E6">
+        <f>SUM(Лист2!AA75:AA78)</f>
+        <v>868</v>
+      </c>
+      <c r="F6">
+        <f>SUM(Лист2!AB75:AB78)</f>
+        <v>869</v>
+      </c>
+      <c r="G6">
+        <f>SUM(Лист2!AC75:AC78)</f>
+        <v>873</v>
+      </c>
+      <c r="H6">
+        <f>SUM(Лист2!AD75:AD78)</f>
+        <v>878</v>
+      </c>
+      <c r="I6">
+        <f>SUM(Лист2!AE75:AE78)</f>
+        <v>878</v>
+      </c>
+      <c r="J6">
+        <f>SUM(Лист2!AF75:AF78)</f>
+        <v>884</v>
+      </c>
+      <c r="K6">
+        <f>SUM(Лист2!AG75:AG78)</f>
+        <v>885</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <f>SUM(Лист2!X92:X95)</f>
+        <v>909</v>
+      </c>
+      <c r="C7">
+        <f>SUM(Лист2!Y92:Y95)</f>
+        <v>920</v>
+      </c>
+      <c r="D7">
+        <f>SUM(Лист2!Z92:Z95)</f>
+        <v>922</v>
+      </c>
+      <c r="E7">
+        <f>SUM(Лист2!AA92:AA95)</f>
+        <v>928</v>
+      </c>
+      <c r="F7">
+        <f>SUM(Лист2!AB92:AB95)</f>
+        <v>932</v>
+      </c>
+      <c r="G7">
+        <f>SUM(Лист2!AC92:AC95)</f>
+        <v>938</v>
+      </c>
+      <c r="H7">
+        <f>SUM(Лист2!AD92:AD95)</f>
+        <v>944</v>
+      </c>
+      <c r="I7">
+        <f>SUM(Лист2!AE92:AE95)</f>
+        <v>947</v>
+      </c>
+      <c r="J7">
+        <f>SUM(Лист2!AF92:AF95)</f>
+        <v>952</v>
+      </c>
+      <c r="K7">
+        <f>SUM(Лист2!AG92:AG95)</f>
+        <v>961</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <f>SUM(Лист2!X11:X14)</f>
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <f>SUM(Лист2!Y11:Y14)</f>
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <f>SUM(Лист2!Z11:Z14)</f>
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <f>SUM(Лист2!AA11:AA14)</f>
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <f>SUM(Лист2!AB11:AB14)</f>
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <f>SUM(Лист2!AC11:AC14)</f>
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <f>SUM(Лист2!AD11:AD14)</f>
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <f>SUM(Лист2!AE11:AE14)</f>
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <f>SUM(Лист2!AF11:AF14)</f>
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <f>SUM(Лист2!AG11:AG14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <f>SUM(Лист2!X30:X33)</f>
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <f>SUM(Лист2!Y30:Y33)</f>
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <f>SUM(Лист2!Z30:Z33)</f>
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <f>SUM(Лист2!AA30:AA33)</f>
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <f>SUM(Лист2!AB30:AB33)</f>
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <f>SUM(Лист2!AC30:AC33)</f>
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <f>SUM(Лист2!AD30:AD33)</f>
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <f>SUM(Лист2!AE30:AE33)</f>
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <f>SUM(Лист2!AF30:AF33)</f>
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <f>SUM(Лист2!AG30:AG33)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <f>MIN(B2:B7)</f>
+        <v>818</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ref="C14:K14" si="0">MIN(C2:C7)</f>
+        <v>816</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>820</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>824</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>824</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>805</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>819</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="0"/>
+        <v>821</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>822</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="0"/>
+        <v>824</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <f>STDEVA(B2:B7)</f>
+        <v>33.74462920228936</v>
+      </c>
+      <c r="C15">
+        <f t="shared" ref="C15:K15" si="1">STDEVA(C2:C7)</f>
+        <v>38.144025307597872</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="1"/>
+        <v>38.071861875493646</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>39.540696335126256</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>40.677594160258138</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>48.875351661138971</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="1"/>
+        <v>46.240314301123284</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="1"/>
+        <v>46.155173057849105</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="1"/>
+        <v>47.529639875204886</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="1"/>
+        <v>50.995751457024994</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17">
+        <f>CONFIDENCE($B$12,B15,$B$13)</f>
+        <v>27.000830725258552</v>
+      </c>
+      <c r="C17">
+        <f t="shared" ref="C17:J17" si="2">CONFIDENCE($B$12,C15,$B$13)</f>
+        <v>30.521016080406508</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="2"/>
+        <v>30.463274369773998</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="2"/>
+        <v>31.638565121087868</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="2"/>
+        <v>32.548256128337634</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="2"/>
+        <v>39.107707745988989</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="2"/>
+        <v>36.99927747443369</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="2"/>
+        <v>36.931151542937961</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="2"/>
+        <v>38.030933841639005</v>
+      </c>
+      <c r="K17">
+        <f>CONFIDENCE($B$12,K15,$B$13)</f>
+        <v>40.804349769090756</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18">
+        <f>AVERAGE(B2:B7)</f>
+        <v>846.5</v>
+      </c>
+      <c r="C18">
+        <f t="shared" ref="C18:K18" si="3">AVERAGE(C2:C7)</f>
+        <v>848.16666666666663</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="3"/>
+        <v>852.33333333333337</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="3"/>
+        <v>854.33333333333337</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="3"/>
+        <v>855.66666666666663</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="3"/>
+        <v>850</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="3"/>
+        <v>859.16666666666663</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="3"/>
+        <v>861.5</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="3"/>
+        <v>864.66666666666663</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="3"/>
+        <v>866.16666666666663</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19">
+        <f>B18-B17</f>
+        <v>819.49916927474146</v>
+      </c>
+      <c r="C19">
+        <f t="shared" ref="C19:K19" si="4">C18-C17</f>
+        <v>817.6456505862601</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="4"/>
+        <v>821.87005896355936</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="4"/>
+        <v>822.69476821224555</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="4"/>
+        <v>823.11841053832904</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="4"/>
+        <v>810.89229225401095</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="4"/>
+        <v>822.16738919223292</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="4"/>
+        <v>824.56884845706202</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="4"/>
+        <v>826.63573282502762</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="4"/>
+        <v>825.36231689757585</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20">
+        <f>B18+B17</f>
+        <v>873.50083072525854</v>
+      </c>
+      <c r="C20">
+        <f t="shared" ref="C20:K20" si="5">C18+C17</f>
+        <v>878.68768274707315</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="5"/>
+        <v>882.79660770310738</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="5"/>
+        <v>885.97189845442119</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="5"/>
+        <v>888.21492279500421</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="5"/>
+        <v>889.10770774598905</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="5"/>
+        <v>896.16594414110034</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="5"/>
+        <v>898.43115154293798</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="5"/>
+        <v>902.69760050830564</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="5"/>
+        <v>906.97101643575741</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>